--- a/xlsx/巨集_intext.xlsx
+++ b/xlsx/巨集_intext.xlsx
@@ -29,7 +29,7 @@
     <t>批处理</t>
   </si>
   <si>
-    <t>政策_政策_維基百科_巨集</t>
+    <t>政策_政策_维基百科_巨集</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E6%9C%BA%E7%A7%91%E5%AD%A6</t>
@@ -59,7 +59,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B7%A8%E8%AD%AF%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>編譯語言</t>
+    <t>编译语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%8F%E8%AF%AD%E8%A8%80</t>
@@ -269,7 +269,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -1751,7 +1751,7 @@
         <v>76</v>
       </c>
       <c r="G39" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H39" t="s">
         <v>4</v>
